--- a/data/landings/cdfw/public/fish_bulletins/raw/fb129/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb129/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb129/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AAFFF7-9F50-544E-8FC8-9B2E34B71A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A15D9-3F66-2447-A4B0-60D2931E01F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20260" yWindow="460" windowWidth="18960" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Monterey</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,8 +497,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>1735031</v>
